--- a/Datasheet/WeaponData.xlsx
+++ b/Datasheet/WeaponData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\ㅇㅇㅇ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\Develop\GitHub\ValutOfHeaven\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDB933-A2BC-4D64-BD0C-20E99E69FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63010C-7306-48CD-8752-B772E985F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="5355" windowWidth="23220" windowHeight="7830" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="3165" windowWidth="23220" windowHeight="7830" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Datasheet/WeaponData.xlsx
+++ b/Datasheet/WeaponData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\Develop\GitHub\ValutOfHeaven\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63010C-7306-48CD-8752-B772E985F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C273E897-350F-4CE2-9C9A-CBC81C90B405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="3165" windowWidth="23220" windowHeight="7830" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,29 +52,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w_2</t>
-  </si>
-  <si>
-    <t>w_3</t>
-  </si>
-  <si>
-    <t>w_4</t>
-  </si>
-  <si>
-    <t>w_5</t>
-  </si>
-  <si>
-    <t>w_6</t>
-  </si>
-  <si>
-    <t>w_7</t>
-  </si>
-  <si>
-    <t>move</t>
+    <t>#설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트윈 터보 캐논</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_TwinTurboCannon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_TwinTurboCannon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_LaserArcCannon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 아크포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_LaserArcCannon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_SupportMissile_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_SupportMissile_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속 지원 미사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_SkyBeamCannon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_SkyBeamCannon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천공의 광선포</t>
+  </si>
+  <si>
+    <t>에너지 플럭스</t>
+  </si>
+  <si>
+    <t>다중 타겟 미사일</t>
+  </si>
+  <si>
+    <t>화염 토르피도</t>
+  </si>
+  <si>
+    <t>충격파 어뢰</t>
+  </si>
+  <si>
+    <t>고폭 어뢰</t>
+  </si>
+  <si>
+    <t>중력 폭격포</t>
+  </si>
+  <si>
+    <t>광선 충격포</t>
+  </si>
+  <si>
+    <t>마그마 폭격기</t>
+  </si>
+  <si>
+    <t>WPN_EnergyFluxCannon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_EnergyFluxCannon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_MultiTargetMissiles_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_MultiTargetMissiles_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_FlameTorpedoes_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_FlameTorpedoes_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_ShockwaveTorpedoes_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_ShockwaveTorpedoes_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_ExplosiveTorpedoes_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_ExplosiveTorpedoes_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_GravitonCannon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_GravitonCannon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_MagmaBombardment_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_MagmaBombardment_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_PhotonShockCannon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_PhotonShockCannon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_RapidMissiles_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 - 연발 미사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_RapidMissiles_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_EnergyShield_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 - 에너지 쉴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_EnergyShield_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,6 +319,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -197,7 +351,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +362,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,154 +654,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06D154A-F5E9-4D36-9F54-5726679D6CC3}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
